--- a/cleaned_course_grade.xlsx
+++ b/cleaned_course_grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ime02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{97F052B5-CA4B-416F-91CD-934637CA4182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9CBB2E4F-2002-4D1F-A1F1-D7EC8D3CA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AB0270B-3089-4508-A80D-E07F65E130F5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="142">
   <si>
     <t>Course Code</t>
   </si>
@@ -389,6 +389,63 @@
   </si>
   <si>
     <t>Registration No.</t>
+  </si>
+  <si>
+    <t>ME231006</t>
+  </si>
+  <si>
+    <t>ME231007</t>
+  </si>
+  <si>
+    <t>ME231009</t>
+  </si>
+  <si>
+    <t>ME231010</t>
+  </si>
+  <si>
+    <t>ME231011</t>
+  </si>
+  <si>
+    <t>ME-1103</t>
+  </si>
+  <si>
+    <t>ME231012</t>
+  </si>
+  <si>
+    <t>ME231013</t>
+  </si>
+  <si>
+    <t>ME231015</t>
+  </si>
+  <si>
+    <t>ME231016</t>
+  </si>
+  <si>
+    <t>ME231017</t>
+  </si>
+  <si>
+    <t>ME231018</t>
+  </si>
+  <si>
+    <t>ME231022</t>
+  </si>
+  <si>
+    <t>ME231023</t>
+  </si>
+  <si>
+    <t>ME231026</t>
+  </si>
+  <si>
+    <t>ME231031</t>
+  </si>
+  <si>
+    <t>ME231035</t>
+  </si>
+  <si>
+    <t>ME231037</t>
+  </si>
+  <si>
+    <t>ME231038</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C747EA-A09F-43AA-826D-9DCCF26EE463}">
-  <dimension ref="A1:C587"/>
+  <dimension ref="A1:C736"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
+      <selection activeCell="A588" sqref="A588:C736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7738,6 +7795,1645 @@
         <v>29</v>
       </c>
     </row>
+    <row r="588" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A700" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A701" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A703" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A704" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A705" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A706" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A707" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A708" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A709" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A710" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A711" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A712" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A713" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A714" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A715" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A716" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A717" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A718" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A719" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A720" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A721" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A722" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A723" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A724" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A725" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A726" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A727" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A728" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A729" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A730" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A731" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A732" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A733" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A734" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A735" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A736" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
